--- a/data/output/Pedido_Semana_07_13022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_mascotas_vivo.xlsx
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2707060003</t>
@@ -884,10 +884,10 @@
         <v>-1</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>160.8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>96.48</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2707130007</t>
@@ -962,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>35.25</v>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>2708030002</t>
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>2606050000</t>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>37.27</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>22.36</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>2707010002</t>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2707050004</t>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1381,25 +1381,25 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>2707070004</t>
@@ -1448,13 +1448,13 @@
         <v>3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>29.25</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1462,22 +1462,22 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2707140009</t>
@@ -1691,13 +1691,13 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16.97</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1705,22 +1705,22 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>2806030002</t>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>90.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>54.54</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>2806030003</t>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>57.55</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>34.53</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1948,25 +1948,25 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>2707010005</t>
@@ -2018,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>2104010001</t>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>73.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>44.16</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2191,22 +2191,22 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>104.62</v>
+        <v>139.5</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>62.77</v>
+        <v>83.7</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2342,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>16.62</v>
+        <v>23.75</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>14.25</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2707030001</t>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2434,22 +2434,22 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2504,10 +2504,10 @@
         <v>-2</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>9.300000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>5.58</v>
+        <v>13.02</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>2707050006</t>
@@ -2585,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>2707090001</t>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>2707110003</t>
@@ -2828,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2707110012</t>
@@ -2909,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>13.42</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2920,25 +2920,25 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>2707110016</t>
@@ -2990,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>15.57</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3001,22 +3001,22 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3152,10 +3152,10 @@
         <v>-1</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>7.2</v>
+        <v>25.2</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>4.32</v>
+        <v>15.12</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3163,25 +3163,25 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>2707190003</t>
@@ -3230,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3343,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2708010017</t>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>17.62</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>2104060001</t>
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3487,10 +3487,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3568,10 +3568,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3583,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>2707010004</t>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3811,25 +3811,25 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U41" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>2104080002</t>
@@ -3892,25 +3892,25 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>2204020001</t>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>119.95</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>71.97</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>2204030001</t>
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>34.85</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>20.91</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4124,10 +4124,10 @@
         <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
+        <v>145.25</v>
+      </c>
+      <c r="N45" s="4" t="n">
         <v>87.15000000000001</v>
-      </c>
-      <c r="N45" s="4" t="n">
-        <v>52.29</v>
       </c>
       <c r="O45" s="7" t="inlineStr">
         <is>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4396,7 +4396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>2707010003</t>
@@ -4448,10 +4448,10 @@
         <v>-1</v>
       </c>
       <c r="M49" s="6" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="inlineStr">
         <is>
@@ -4459,25 +4459,25 @@
         </is>
       </c>
       <c r="P49" s="3" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U49" s="8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" hidden="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>2707040002</t>
@@ -4540,25 +4540,25 @@
         </is>
       </c>
       <c r="P50" s="3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" hidden="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>2708010004</t>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="P51" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
@@ -4636,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="8" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>2705010001</t>
@@ -4691,10 +4691,10 @@
         <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>29.7</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>17.82</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="inlineStr">
         <is>
@@ -4702,22 +4702,22 @@
         </is>
       </c>
       <c r="P52" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T52" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U52" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4783,19 +4783,19 @@
         </is>
       </c>
       <c r="P53" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T53" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U53" s="8" t="n">
         <v>3</v>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>421</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>1538.35€</t>
+          <t>662.53€</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="C67" s="5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
